--- a/pcxzf/pcxzf/other/wangshun/平昌要闻.xlsx
+++ b/pcxzf/pcxzf/other/wangshun/平昌要闻.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,133 +424,150 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>办好“微讲堂” 切实提能力</t>
+          <t>检民携手  共护最美夕阳红</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr"/>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>杨煜</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>县市场监督管理局：“三强化”护航“两考”食药安全</t>
+          <t>县自规局：暖心护航 全力消除地灾隐患</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>唐通鑫</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>县交运局：“爱心送考”不缺席，交通助梦再起航</t>
+          <t>镇龙镇：推进秸秆回收 让“草垛垛”变“金元宝”</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>马琴</t>
+          <t>苟宴平</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>县网信办多形式开展网络举报辟谣宣传周暨网络普法行活动</t>
+          <t>创业有梦 巡诊相伴</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>网信办</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>袁海</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>云台镇：多措并举，抓实夏季防溺水</t>
+          <t>县供销社：多措并举聚合力  齐心抗旱保茶苗</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>云台镇人民政府</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>县供销合作社联合社</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>张丽春</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>我县创新机制巩固提升茶产业基地质效</t>
+          <t>平昌县举办文旅人才培训班</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>县文保中心</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胡智臻、徐勇</t>
+          <t>杜强</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县开展2024年全国“放鱼日”同步增殖放流活动</t>
+          <t>平昌县开展2024年东西部协作项目乡村教师 
+（新聘教师）培训</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>县教科局</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -558,448 +575,440 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县召开2024年普通高考监考工作动员会</t>
+          <t>“洁净”全力，共创美丽乡村</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
+          <t>板庙镇人民政府</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>王玉蓉</t>
+          <t>余星达</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>县供销社：“五着力”发展白酒产业</t>
+          <t>四川麦森林食品有限公司正式投产</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>县供销合作社联合社</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>何秀平</t>
-        </is>
-      </c>
+          <t>平昌经开区</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>澌岸镇：“四个强化”推进秸秆禁烧工作落实落细</t>
+          <t>县不动产登记中心：全力破解登记难，喜迎群众笑开颜</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>王杉文</t>
+          <t>王舟</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>西兴镇：保护传统村落，传承历史文化</t>
+          <t>县水利局：“三道防线”做实防溺水工作</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>荣芸</t>
+          <t>李怀民</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万学成督查2024年高中考备考工作</t>
+          <t>县交通运输局：“打非治违”不停歇 联合执法亮“利剑”</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>向渝 孙云霞</t>
+          <t>杜林</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>江口醇酒出口韩国</t>
+          <t>佛楼镇：“三强化”守好人民群众的钱袋子</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>县商务局</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>苟兰亭</t>
+          <t>王小红</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>兰草镇：筑牢夏季防溺水安全“防护墙”</t>
+          <t>县水利局多措并举抓实招商引资工作</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>谢欣彤</t>
+          <t>唐峥嵘</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>白衣镇“疏堵结合”打好秸秆禁烧“组合拳”</t>
+          <t>拧紧夏季食品安全阀 守护群众舌尖上的健康</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>白衣镇人民政府</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>刘清平</t>
+          <t>刘芋伶</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县链接高端医疗资源“提能惠民”</t>
+          <t>佛楼镇：“党建3+”激发乡村振兴新活力</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>潘铄灵</t>
+          <t>向单单</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>县水利局：多措并举优化净化全县水生态环境</t>
+          <t>县民政局全力推进民政项目建设</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>李怀明</t>
+          <t>刘军</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>得胜镇“五聚焦”，持续推动集体经济发展</t>
+          <t>佛楼镇：多举措打好耕地保护组合拳</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>得胜镇人民政府</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>杨舵</t>
+          <t>刘芋伶</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>县住建局：多措并举，为中高考学子按下“静音键”</t>
+          <t>县自规局：创新规划审查机制 助力项目落地再提速</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>县住房和城乡建设局</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>李川</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>岩口镇：多措并举防溺水，凝心聚力保平安</t>
+          <t>岳家镇：培养“法律明白人”助力法治乡村建设</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>李袁明</t>
+          <t>胡秀娟</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>粉壁镇：多措并举防溺水，筑牢生命安全网</t>
+          <t>泥龙镇“四个狠抓”做好夏季学生防溺工作</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>岳瑞</t>
-        </is>
-      </c>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县“三个到位”推进“四大活动”</t>
+          <t>我县1-7月重点项目累计完成投资59.72亿元</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>县退役军人事务局</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>杨玉霞</t>
+          <t>周晟</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>望京镇：“三个狠抓”守牢安全生产“基本盘”</t>
+          <t>佛楼镇：“三紧盯三强化”筑牢防溺水“安全堤”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>望京镇人民政府</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>蔡凤琼</t>
+          <t>文捷</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>金宝街道：巧做“茶文章” 助力乡村振兴</t>
+          <t>平昌县获批建设用地7.9921公顷</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>胡文彩</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>平昌县“三加强三到位”全力护航高考</t>
+          <t>建设体育强国，展示中国人民的志气锐气底气</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>王玉蓉 向瑜</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>县综合行政执法局：整治噪声扰民 营造宜居环境</t>
+          <t>​县教科局开展“法治体检”助力企业发展</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县教科局</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>雷浩彬</t>
+          <t>韩玖贵</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>三十二梁镇“三强化”夯实生态环境保护工作</t>
+          <t>镇龙镇：抓实“三关” 筑牢防溺水安全堤</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>三十二梁镇人民政府</t>
+          <t>镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>李小雨</t>
+          <t>杜忠长</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>县水利局：以“防灾”为抓手，抓实“减灾”新举措</t>
+          <t>兰草水库工程建设征地移民安置规划大纲复审会和移民安置规划技术咨询会在成都召开</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1009,460 +1018,464 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>许文佳 李怀明</t>
+          <t>黎玉琼</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>兰草镇：以“河长制”促“河常治”</t>
+          <t>永康市农业专家来平开展水果种植技术指导</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>县教育科技局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>韩海军</t>
+          <t>刘双荣</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>佛楼镇：“三强三到位”筑牢地灾防治安全防线</t>
+          <t>守护生命安全，传递爱心力量</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>县红十字会</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>陈沭琎</t>
+          <t>赵晓通</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>江口水乡管理局：三个“早”字抓好防溺水工作</t>
+          <t>水质检测有力度 饮水安全有保障</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>江口水乡水利风景区建设管理局</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>刘芹</t>
+          <t>王兰</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>白衣镇“三个三”扎实做好城乡环境大提升工作</t>
+          <t>岩口镇:集体丰收“黄金甲” 农户增收“笑开花”</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>白衣镇人民政府</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>刘清平</t>
+          <t>郑川</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>县水利局：扎实开展防汛安全隐患排查整治</t>
+          <t>担主责 除隐患 强备战 保平安</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>平昌县水利局</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>黄润红</t>
+          <t>李怀明</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>佛楼镇：打好“三张牌”构筑防灾减灾安全防线</t>
+          <t>平昌县精心构建干部教育培训体系</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>平昌县地方志办公室</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>刘芋伶、王小红</t>
+          <t>冉雪</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>泥龙镇：“三个一”筑牢 “ 防汛减灾 ” 安全堡垒</t>
+          <t>响滩镇：吹响晚秋“号角”，擂起粮食“战鼓”</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>平昌县响滩镇人民政府</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>王通文</t>
+          <t>周大军</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>省工商联副主席胡景寿来平调研托底性帮扶工作</t>
+          <t>岩口镇：举办集体升学礼，唤得文明新风来</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>县工商联</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>王青松</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>兰草镇：筑牢夏季防溺水安全“防护墙”</t>
+          <t>兰草镇：织密暑期安全网，拧紧高温“安全阀</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>谢欣彤</t>
+          <t>刘慧</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>平昌县获批建设用地34.3233公顷</t>
+          <t>镇龙镇：打好组合拳 铸牢森林防火屏障</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胡文彩</t>
+          <t>苟宴平</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>平昌县首例跨行“带押过户”成功办理</t>
+          <t>澌岸镇：做好“三个一”工作，扎实推进“四防”教育</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>王舟</t>
+          <t>澌岸镇  方鑫</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>平昌县创新开展“安全三字经”推广活动</t>
+          <t>县财政局：“三个坚持”培养高素质干部队伍</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>白京</t>
+          <t>办公室</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>佛楼镇：三举措推进“河长制”工作走深走实</t>
+          <t>县人社局推进“四治融合” 全力构建和谐劳动关系</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>李杨</t>
+          <t>何文波</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>我县召开涉及不平等对待企业规范性文件 政策清理工作专题会</t>
+          <t>县自规局：算好国有资源“明白账”点燃经济发展“新引擎”</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>张玉芳</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>县交运局“三化”夯实中高考运输服务保障工作</t>
+          <t>土垭镇：做实防溺水工作保障辖区安全稳定</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>平昌县土垭镇人民政府</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>唐耀宗</t>
+          <t>李宏标、陆鹏飞</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>我县今年国债地灾项目累计补助投资1.3055亿元</t>
+          <t>灵山镇：筑牢源头防线监管  守护群众舌尖安全</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>邓仕林</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：全力做好汛期地灾防治工作</t>
+          <t>县水利局：防暑度汛应对有力 工程建设稳步推进</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>唐通鑫</t>
+          <t>李宗峻</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>得胜司法所：三举措助力营造法治化营商环境</t>
+          <t>县交运局：多措并举筑牢交通行业安全屏障</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>袁侨</t>
+          <t>何家溢</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>岩口镇：消防宣传进校园，共筑安全“防火墙”</t>
+          <t>县民政局“三个全面”做实防汛救灾工作</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>李袁明</t>
+          <t>符春雷</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>笔山镇：小小青花椒撬开致富大门</t>
+          <t>西兴镇：专注食品安全 筑牢安全防线</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>笔山镇人民政府</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>杜明哲</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>我县开展“知识产权服务万里行”进企业活动</t>
+          <t>为世界文明百花园增添绚丽色彩</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
+          <t>新华社</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1470,277 +1483,273 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>驷马镇：“法律明白人”夯实法治基础</t>
+          <t>“酒”闻平昌，助推县域经济高质量发展</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>县地方志办公室</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>何俊</t>
+          <t>陈芳</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>兰草镇：“三举措”筑牢汛期地质灾害防线</t>
+          <t>灵山镇：三聚焦推动法治化营商环境建设</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>谢欣彤</t>
+          <t>陈晓睿</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>我县以研学赋能景区提质增效</t>
+          <t>以督促改 以督提效</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>县文化广播电视体育和旅游局</t>
+          <t>县卫生健康局</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>杜小乔</t>
+          <t>李佳佳</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>佛楼镇：“1+2+3”机制推动党纪学习教育走深走实</t>
+          <t>板庙镇：开展道路交通“两车”专项整治工作</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>县佛楼镇人民政府</t>
+          <t>板庙镇人民政府</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>陈述琎</t>
+          <t>熊林</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>灵山镇：多措并举打好秸秆禁烧“组合拳”</t>
+          <t>泥龙镇：聚焦谱好“三部曲”，把“驻村”变为“助村”</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
+          <t>泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>孙庶翔</t>
+          <t>王通文</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>邱家镇：多措并举筑牢秸秆禁烧“防火墙”</t>
+          <t>江家口水库：重大水利工程建设“火力全开”</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
+          <t>县地方志办公室</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>邵崟雄</t>
+          <t>冉雪</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>县审计局多措并举推进党纪学习教育</t>
+          <t>平昌县组织开展“一木环保”暑期公益研学实践教育活动</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>县审计局</t>
+          <t>教科局</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>李通平</t>
+          <t>王玉蓉</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>凉山村寨纪行</t>
+          <t>平昌县赴眉山、乐山等地开展投资促进活动</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>张旭东 谢佼 尹恒</t>
+          <t>胡智臻、彭紫娴</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>平昌县在全国2023年青少年科学调查体验活动斩获佳绩</t>
+          <t>佛楼镇：玉米秸秆青贮忙，种养结合同受益</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>平昌发布</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>莫勤</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>平昌县第八届青少年智力运动“飞叠杯”挑战赛圆满落幕</t>
+          <t>规范图书管理 服务乡村振兴</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>王玉蓉</t>
-        </is>
-      </c>
+          <t>县图书馆</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>佛楼镇：多措并举做好学生防溺水工作</t>
+          <t>平昌县召开2024年道路交通安全工作会议暨“两车”治理工作现场推进会</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>余长江、刘岩</t>
-        </is>
-      </c>
+          <t>县公安局</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>县水利局“三效合一”推动安全生产工作</t>
+          <t>2024年上半年平昌县经济运行情况</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县统计局</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>张涛</t>
+          <t>鲜荣天</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>平昌县召开创建“健康四川示范县”工作专题会</t>
+          <t>“清华学子平昌行”青年交流座谈会成功举行</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
+          <t>经开区管委会</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1748,1323 +1757,3592 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>灵山镇：“四个到位”全力抓好防溺水工作</t>
+          <t>我县“三个三”提速两类土地处置</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>邓仕林</t>
+          <t>沈国强</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌水利多点发力  项目建设齐头并进</t>
+          <t>县司法局：巧用“加减乘除”法推动整治形式主义为基层减负工作走深走实</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>李汶芳</t>
+          <t>邢文军</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>我县油菜亩产再创新高</t>
+          <t>“八一”慰问送温暖  拥军优属掀热潮</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>王义斌  胡洲</t>
-        </is>
-      </c>
+          <t>县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>金宝街道：扎实推进高标准农田建设， 夯实粮食丰产“耕”基</t>
+          <t>平昌白酒营销推介（温州站）活动成效显著</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>唐立</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>学党纪 明规矩 助农插秧促振兴</t>
+          <t>平昌县“三举措”抓实防汛减灾</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>白衣镇人民政府</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>白蓉华</t>
+          <t>孙军</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>平昌县一季度招商引资成效显</t>
+          <t>我县建立“三项机制”，抓好暑期防溺水工作</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>县招商局</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>易丹</t>
+          <t>孙军</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>灵山镇五措施抓实春季秸秆禁烧工作</t>
+          <t>平昌县5件作品参加中小学生艺术展演活动四川现场展演</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>丁帮魏</t>
-        </is>
-      </c>
+          <t>教科局</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>平昌县第四次全国文物普查领导小组第一次会议召开</t>
+          <t>板庙镇：强化消防意识 筑牢安全防线</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>县文化广播电视体育和旅游局</t>
+          <t>板庙镇人民政府</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>杨希彬</t>
+          <t>熊林</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>泥龙镇：下好“三步棋”，助推党纪学习教育走深走实</t>
+          <t>我县降低用气成本  助力企业保质增效</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>王通文</t>
+          <t>李林娟</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>我县加快推动托底性帮扶项目建设</t>
+          <t>“才聚平昌·智汇经开”2024平昌经开区青年交流活动举行</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>杜明星</t>
-        </is>
-      </c>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>佛楼镇：“三个到位”扎实开展秸秆禁烧工作</t>
+          <t>平昌县“四个机制”推进安全宣传“五进”</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>莫勤</t>
+          <t>丁张</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>县综合行政执法局：全力护航“天心蓝” “夏季攻势”正当时</t>
+          <t>粉壁镇：筑牢防溺水安全防线，守护未成年儿童生命健康</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>唐英</t>
+          <t>苟槐</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>“平昌青芽茶”荣登第十三届四川国际茶博会舞台</t>
+          <t>平昌县“三个一”强化有限空间安全监管</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胡智臻   廖小宁</t>
+          <t>唐艺精</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>平昌县：“四举措”推进宜居宜业宜游和美乡村建设</t>
+          <t>平昌经开区青年干部第一期技能大赛举行</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>胡洲</t>
-        </is>
-      </c>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>导师巡诊“把脉” 服务创新创业</t>
+          <t>我县“三聚力”抓好消防安全</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>郭娟</t>
+          <t>唐艺精</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>县公路养护管理段：坚持“四化”并举扎实推进路域环境整治</t>
+          <t>平昌县：九小场所“回头看” 消防安全“除隐患”</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>李成志</t>
+          <t>杨海燕</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>县交运局：环境整治不停歇  扮靓公路“风景线”</t>
+          <t>平昌县2024年第3期“政企沟通茶间荟举行</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>曾欣</t>
-        </is>
-      </c>
+          <t>县工商联</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>县综合行政执法局：规范校园周边秩序 营造良好育人环境</t>
+          <t>上半年，我县经济运行总体向好</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>雷浩彬</t>
+          <t>付佳</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>平昌县开展2024年防灾减灾日宣传活动</t>
+          <t>泥龙镇：“三到位”筑牢防溺水安全堤</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>刘泽</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>团县委：“三个聚焦”激发青年干事创业活力</t>
+          <t>县教育科技局开展2024年“政务开放日”主题活动</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>平昌团县委</t>
+          <t>县教科局</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>张军</t>
+          <t>李世林</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>三十二梁镇：“三个到位” 扎实开展地质灾害夜间应急演练</t>
+          <t>促进种养“双向奔赴” 带动农民持续增收</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>三十二梁镇人民政府</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>杜磊</t>
+          <t>徐勇</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>习近平结束对法国、塞尔维亚和匈牙利国事访问回到北京</t>
+          <t>南天门管委会：创新机制，打破瓶颈，持续壮大村集体经济发展</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>南天门旅游景区管理委员会</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>马秀莲</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>邱家镇出实招筑牢防汛“安全堤”</t>
+          <t>县教科局党组专题学习党的二十届三中全会精神</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>张姿柔</t>
-        </is>
-      </c>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>江家口镇：念好“三字经”做实消防隐患排查整治工作</t>
+          <t>平昌县全面推行“两单一图”机制让风险隐患做到心中有数</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>李智鹏</t>
+          <t>孙玉华</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>县就业局：导师巡诊“把脉” 服务创新创业</t>
+          <t>板庙镇：三步走织密夏季防溺水安全网</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
+          <t>板庙镇人民政府</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>郭娟</t>
+          <t>何贤</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>县民政局：加强低收入人口动态监测和分层分类救助帮扶</t>
+          <t>酷暑难挡普查路，踏寻遗珍不停步</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>县民政局</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>米栢林</t>
-        </is>
-      </c>
+          <t>县文保中心</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>我县做好数据审核，把好“五经普”数据质量关</t>
+          <t>监管与服务并重，检查与指导同行</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>县统计局</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>刘华平</t>
+          <t>靳绍军、杨旺、张心莲、苟书洲</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>粉壁镇：发展订单式农业 激发产业活力</t>
+          <t>9.8秒，完成294人的应急逃生撤离！</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>靳绍军、杨旺、张心莲、苟书洲</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>习近平在塞尔维亚媒体发表署名文章
-让铁杆友谊之光照亮中塞合作之路</t>
+          <t>江家口镇：“三张网”筑牢防溺水安全防线</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>邱明英</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>江家口镇：落实底线责任，织密织牢防汛减灾安全网</t>
+          <t>望京镇：多措并举防溺水  筑牢生命保护墙</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>岳俭君</t>
+          <t>张蓝心</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>习近平同法国总统马克龙在上比利牛斯省举行中法元首小范围会晤</t>
+          <t>平昌县召开重大传染病防治和严重精神障碍患者管理服务工作推进会</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>韩冰 刘芳</t>
-        </is>
-      </c>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>习近平同马克龙出席中法企业家委员会第六次会议闭幕式并致辞</t>
+          <t>县自规局：多措并举出实招  招商引资见成效</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>韩梁 马峥</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>习近平同法国总统马克龙共同会见记者</t>
+          <t>秦巴茗兰“静心玉叶（有机）”和“茗兰雀舌”荣获金奖</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>县供销合作社联合社</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>刘华 郝薇薇</t>
+          <t>曾俊文</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>平昌县帮扶退捕渔民转产就业经验做法入选全国退捕渔民安置保障典型案例</t>
+          <t>望京镇：加强汛期自建房隐患排查 守护群众生命安全</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>陈锦</t>
+          <t>蔡凤琼</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>小桥街社区卫生服务中心成功创建省级社区医院！</t>
+          <t>响滩镇：规范乡厨“农村宴”，守好舌尖“安全门”</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>任成均</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>习近平同法国总统马克龙举行会谈</t>
+          <t>县不动产登记中心：三大举措优环境  助力营商新篇章</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>倪四义 田帆</t>
+          <t>王舟</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>金宝街道：抢抓农时，让驻村变“助春”</t>
+          <t>我县积极推进消费品以旧换新</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>唐立</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>佛楼镇：“四举措”做实防汛减灾工作</t>
+          <t>平昌县多措并举开展森林火灾隐患排查整治工作</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>县应急管理局</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>向单单</t>
+          <t>杨海燕</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>县交运局：“三到位”落实落细交通运输领域安全生产治本攻坚三年行动</t>
+          <t>我县“四措并举”扎实做好防汛减灾工作</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>何家溢</t>
-        </is>
-      </c>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>平昌经开区：全力为企业发展护航</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>数量</t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
+          <t>平昌县聚焦“三个聚焦”推进安全宣传“五进”工作</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2</v>
+          <t>岩口镇以“三查”筑牢汛期安全防线</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>王青松</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>5</v>
+          <t>泥龙镇:唱好“三字经”，推进乡村振兴</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>杨博文</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>网信办</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
+          <t>四川平昌大美鑫光锂电池项目预计7月底正式投产</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>云台镇人民政府</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
+          <t>金宝街道：真抓实干度汛期，社会救助暖人心</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>4</v>
+          <t>灵山镇：盛夏水果丰收忙，产业助力增收旺</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>孙庶翔</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>5</v>
-      </c>
+          <t>经开区：扎实开展食品安全排查整治专项行动</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>县供销合作社联合社</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
+          <t>江口街道：夯实举措，全力防治地质灾害</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>何姣</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
+          <t>扎实推进“田长制”，守好粮食“生命线”</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>胡文彩</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
+          <t>县发改局：抓好“四心”服务 打造良好审批软环境</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>县发展和改革局</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>付玉霞</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>县商务局</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
+          <t>响滩镇：“三举措”筑牢防溺水“生命之堤”</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>周大军</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>4</v>
-      </c>
+          <t>大寨镇：扎实开展畜禽养殖污染防治工作</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>3</v>
-      </c>
+          <t>我县“三个强化”扎实抓好道路交通安全工作</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>3</v>
-      </c>
+          <t>创造发展机遇 促进共同繁荣</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>县水利局：抓安全，抢进度，全力以赴推进国债水利项目建设</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>县水利局</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>5</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>何江平</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
+          <t>我县三举措强化执法监督 助推企业高质量发展</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>县司法局</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>喻东山</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>县住房和城乡建设局</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
+          <t>我县第一批次国债地灾避险搬迁安置户通过验收</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>唐通鑫</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2</v>
+          <t>江口街道：用好“有事来协商” 巧解居民“心头结”</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>何姣</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2</v>
+          <t>县自规局：雨情就是命令 全力打好地灾防治攻坚战</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>唐通鑫</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>县退役军人事务局</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
+          <t>县民政局：“汛”速出击，打好防汛“主动仗”</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>曹丽</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>望京镇人民政府</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>1</v>
+          <t>白衣镇：“汛”速出击，全域作战</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>魏龙泉</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>3</v>
+          <t>邱家镇以“迅”应“汛”筑牢汛期安全屏障</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>孙胜武、李供</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>3</v>
+          <t>镇龙镇：以“汛”为号 以“迅”应“汛”</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>杜忠长</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>三十二梁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2</v>
+          <t>佛楼镇：多措并举守护粮食安全</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>昝秋杉</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>6</v>
+          <t>平昌县暑期“爱心课堂”开班</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>王琳</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>江口水乡水利风景区建设管理局</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
+          <t>县市场监督管理局：开展知识产权“进企业”活动</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>李霞</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2</v>
+          <t>县交运局：“汛”速出击，筑牢交通运输安全防线</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>局办公室、局安运股</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>县工商联</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
+          <t>元山镇：扛实工作责任 筑牢防汛安全堤</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>徐敏</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>4</v>
+          <t>县教科局：“三个强化”抓实校园防汛工作</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>王玉蓉、王超</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>县司法局</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>3</v>
+          <t>望京镇：闻“汛”而动  以“汛”为令</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>张蓝心</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>笔山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
+          <t>粉壁镇：扎实做好防汛减灾工作</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>苟槐</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>县文化广播电视体育和旅游局</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
+          <t>佛楼镇：周密部署打好防汛战</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>向单单</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>县佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1</v>
+          <t>泥龙镇：“三强化”筑牢防灾减灾安全防线</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>刘泽</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2</v>
+          <t>聚焦企业诉求  助力企业发展</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>李艳丽</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>2</v>
+          <t>得胜镇：多举措筑牢防汛“安全堤”</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>岳缘</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>县审计局</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1</v>
+          <t>板庙镇：多措并举打好防汛减灾“组合拳”</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>蒋佳芮</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>7</v>
+          <t>灵山镇：闻“汛”而动，筑牢防汛减灾安全防线</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>陈韬</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>平昌发布</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
+          <t>平昌县教科局召开2024年教育工作半年总结会</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>王玉蓉</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>县招商局</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
+          <t>蓄力赋能   我县启动2024年暑假教师集中培训</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>李世林</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
+          <t>我县“三个突出”织密暑期安全网</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>孙云霞</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
+          <t>镇龙镇：做好充分准备，打好防汛减灾攻坚战</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>魏元斌</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
+          <t>县供销社：“六个加速”构筑驱动发展新动能</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>县供销合作社联合社</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>何秀平</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>3</v>
-      </c>
+          <t>平昌经开区企业沙龙（第三期）暨“银企面对面”活动在企业幸福中心举行</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
+          <t>县水利局：重抓工程建和管 良性运行保安全</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>李怀明</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>平昌团县委</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
+          <t>平昌县着力打通茶叶加工“第一公里”</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>胡智臻 徐勇</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2</v>
+          <t>县商务局组织白酒企业开拓外贸新市场</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>苟兰亭</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>县民政局</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
+          <t>涵水镇：暑期防溺水 安全不“放假”</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>何青华</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>江口街道：严防死守做实防溺水工作</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>何晓红</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>江家口镇：排道路隐患，护万家灯火</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>李明鉴</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>澌岸镇：提质增量，培育壮大市场主体</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>魏吕鹏</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>得胜镇：三举措筑牢防溺水安全屏障</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>张钰杉</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>江家口镇：移风易俗引领风尚，文明新风泽润城乡</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>蒲璇</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>镇龙镇：“三结合”推动党纪学习教育 走深走实</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>陈靖文</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>大寨镇：推行镇域一体化城乡环境治理</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>澌岸镇梭滩村：家门口的供销社</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>王杉文</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>县自规局：开启规划“导航”  激活资源“引擎”</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>李超</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>《平昌县国土空间总体规划（2021—2035年）》正式获批实施</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>袁健</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>县医保局：结对共建学党纪  互帮互助同守纪</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>县医疗保障局</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>办公室</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>县综合行政执法局：“环境整治不留死角 齐心打造靓丽城区”</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>葛小玲</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  得胜镇：切实打好道路交通安全主动仗</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>汪久淳</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>邱家镇：多措并举扎实推进“安全生产月”活动</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>任佳利</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>加强经济运行调度 助力“双过半”目标实现</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>县发展和改革局</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>付佳</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>粉壁镇：扎实开展2024年秋季征兵工作</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>唐治</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局：“三举措”推进营商环境提质增效</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>沈略</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>大寨镇：“三强化”筑牢防汛“安全堤”</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>镇龙镇：多举措并行打造森林安全防线</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>王力</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>镇龙镇：“三举措”筑牢防溺水安全防线</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>陈佳</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>县农业农村局强化市场主体培育助力县域经济高质量发展</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>刘庚儒</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>县水利局：精准核定江家口水库移民人口</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>得胜镇：“三举措”扎实做好道路交通安全工作</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>张钰杉</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>我县开展“6.25”全国土地日宣传活动</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>袁健</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>我县在“中国创翼”创业创新大赛四川赛区巴中市选拔赛中斩获佳绩</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>郭娟</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>我县“三聚力”打造政务服务“清廉”窗口</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>李吉林</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>我县开展未成年人进娱乐场所专项整治清查行动</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>周娟</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>平昌县第九届全县学生“学宪法 讲宪法”比赛活动县级决赛成功举行</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>韩玖贵</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>板庙镇：提升安全防范意识，织密防溺水保护网</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>余星达</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>土兴镇：务实“三个强化”，让群众出行更安全</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>刘焱</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>响滩镇：开展居民楼栋逃生演练，提升居民消防安全意识</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>任成均</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>青云镇：“五学并进” 推动党纪学习教育 走深走实</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>杨春</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>邱家镇探索“互望”模式共护美丽“天空蓝”</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>张姿柔</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>县委组织部召开传达学习县委十四届九次全会精神专题会议</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>县委组织部</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>唐雄</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>我县成功拍卖2宗国有土地实现价款收入8360万元</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>郭文静</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>粉壁镇：四个“严抓”扎实推进防汛抗旱工作</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>岳瑞</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>我县聚焦移民后扶导向  激发乡村振兴活力</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>杨冬</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>“三办”促“三化”，助力便民服务提质增效</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>刘立</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>得胜镇：三举措织牢防溺水“安全网”</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>岳缘</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>平昌县“332”机制深入推进农村假冒伪劣食品整治</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>李爽</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>江口街道：积极开展“九小场所”食品安全排查</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>岳丹</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>县综合行政执法局：“门前五包”常态化 精细管理促文明</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>雷浩彬</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>泥龙镇：“三抓三促”护航道路安全</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>吴成浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>得胜镇：念好“三字诀”，筑牢夏季校园安全防护网</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>冉再一</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>我县兑现奖励资金近100万提振企业信心</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>沈郑</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>“万步有约”！走起~</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>张书浩</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>佛楼镇：“三步走”扎实开展撂荒地整治工作</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>向单单</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>县林业局：科技赋能 开启森林防灭火监测新模式</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>县林业局</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>曾乐琼  王和平  苟琳</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>灵山镇多措并举扎实推进“河长制”工作</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>李涵</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>县水利局：移民后扶“三到位”，按下项目快捷键</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>杨冬</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>县供销合作社联合社</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>县文保中心</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>县教科局</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>平昌经开区</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>县司法局</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>县发展和改革局</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>县红十字会</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>平昌县水利局</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>平昌县地方志办公室</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>县地方志办公室</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>教科局</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>县图书馆</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>县公安局</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
           <t>县统计局</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>县工商联</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>南天门旅游景区管理委员会</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>县委组织部</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>县林业局</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
         <v>1</v>
       </c>
     </row>

--- a/pcxzf/pcxzf/other/wangshun/平昌要闻.xlsx
+++ b/pcxzf/pcxzf/other/wangshun/平昌要闻.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,203 +424,202 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>检民携手  共护最美夕阳红</t>
+          <t>中央党史和文献研究院第七研究部副主任、著名纪录片导演张军锋赴平调研党史和红色资源保护传承工作</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>县民政局</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>杨煜</t>
-        </is>
-      </c>
+          <t>县委党史办</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>县自规局：暖心护航 全力消除地灾隐患</t>
+          <t>我县织密物流网，激活乡村振兴新动能</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>唐通鑫</t>
+          <t>曾欣</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>镇龙镇：推进秸秆回收 让“草垛垛”变“金元宝”</t>
+          <t>汕头市四川巴中商会来平开展产销对接活动</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>县商务局</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>苟宴平</t>
+          <t>王玉霖</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>创业有梦 巡诊相伴</t>
+          <t>我县“锚定三个方向”防范化解涉客船舶安全风险</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>袁海</t>
-        </is>
-      </c>
+          <t>县交通运输综合行政执法大队</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>县供销社：多措并举聚合力  齐心抗旱保茶苗</t>
+          <t>望京镇：紧绷防火弦 织密森林“安全网”</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>县供销合作社联合社</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>张丽春</t>
+          <t>蔡凤琼</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县举办文旅人才培训班</t>
+          <t>县发改局：聚焦四大环节，攻坚推进项目建设提速增效</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>县文保中心</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>杜强</t>
+          <t>马林宗</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县开展2024年东西部协作项目乡村教师 
-（新聘教师）培训</t>
+          <t>兰草镇：聚焦“133”工作机制促进镇域经济高质量发展</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>县教科局</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>赵彩霞</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>“洁净”全力，共创美丽乡村</t>
+          <t>望京镇：稳粮增豆抓春耕 双优协同促复合</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>余星达</t>
+          <t>张蓝心</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>四川麦森林食品有限公司正式投产</t>
+          <t>涵水镇：筑牢节前安全“防火墙” 倡导文明祭祀新风尚</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平昌经开区</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>何青华</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>县不动产登记中心：全力破解登记难，喜迎群众笑开颜</t>
+          <t>平昌县2024年第11、12批次集体建设用地获批</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -630,244 +629,244 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>王舟</t>
+          <t>胡文彩</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>县水利局：“三道防线”做实防溺水工作</t>
+          <t>平昌县纵深推进法治政府建设</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>李怀民</t>
+          <t>张玉芳</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>县交通运输局：“打非治违”不停歇 联合执法亮“利剑”</t>
+          <t>金宝街道：扎实推进动物疫病“春防”工作</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>杜林</t>
+          <t>魏述明</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>佛楼镇：“三强化”守好人民群众的钱袋子</t>
+          <t>我县三举措夯实小微企业发展支撑</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>王小红</t>
+          <t>马林宗</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>县水利局多措并举抓实招商引资工作</t>
+          <t>金宝山春茶吐翠 绘就春日产业图</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>唐峥嵘</t>
+          <t>陈姝含</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>拧紧夏季食品安全阀 守护群众舌尖上的健康</t>
+          <t>西兴镇：多措并举打好春耕生产主动仗</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>刘芋伶</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>佛楼镇：“党建3+”激发乡村振兴新活力</t>
+          <t>岩口镇：播种特色南瓜，发展集体经济</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>向单单</t>
+          <t>孙杰</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>县民政局全力推进民政项目建设</t>
+          <t>望京镇：特色养殖“链”通乡村致富路</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>刘军</t>
+          <t>马元超</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>佛楼镇：多举措打好耕地保护组合拳</t>
+          <t>江家口镇：扎实推进畜禽养殖场有限空间安全管理工作</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>江家口镇人民政府</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>刘芋伶</t>
+          <t>张仁杰</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>县自规局：创新规划审查机制 助力项目落地再提速</t>
+          <t>佛楼镇：多措并举筑牢全民反诈“防火墙”</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>陈沭琎</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>岳家镇：培养“法律明白人”助力法治乡村建设</t>
+          <t>云台镇：便民服务“加速度”帮办代办“暖民心”</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>云台镇人民政府</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胡秀娟</t>
+          <t>云台镇</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>泥龙镇“四个狠抓”做好夏季学生防溺工作</t>
+          <t>三十二梁镇：“三单”守牢生态环境底线</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -875,841 +874,829 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>我县1-7月重点项目累计完成投资59.72亿元</t>
+          <t>青云镇：深耕鞋服纺织业，迸发发展新活力</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
+          <t>青云镇人民政府</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>周晟</t>
+          <t>靳博</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>佛楼镇：“三紧盯三强化”筑牢防溺水“安全堤”</t>
+          <t>江家口镇：多措并举打好春耕“主动仗”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>江家口镇人民政府</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>文捷</t>
+          <t>雷文静</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>平昌县获批建设用地7.9921公顷</t>
+          <t>平昌县成功出让一宗国有建设用地使用权</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>公共资源交易服务中心</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胡文彩</t>
+          <t>任姣姣</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>建设体育强国，展示中国人民的志气锐气底气</t>
+          <t>我县强力推进115座水库智慧化建设</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>李怀民</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>​县教科局开展“法治体检”助力企业发展</t>
+          <t>笔山镇：科学管护兴茶园，融圈建链助“青芽”</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>笔山镇人民政府</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>韩玖贵</t>
+          <t>杜明哲</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>镇龙镇：抓实“三关” 筑牢防溺水安全堤</t>
+          <t>泥龙镇：多措并举助力春耕生产</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>杜忠长</t>
-        </is>
-      </c>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>兰草水库工程建设征地移民安置规划大纲复审会和移民安置规划技术咨询会在成都召开</t>
+          <t>江口街道：“三抓”一体  严阵以待战“春防”</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>黎玉琼</t>
+          <t>胡蝶</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>永康市农业专家来平开展水果种植技术指导</t>
+          <t>我县高标准推进重点项目建设</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>刘双荣</t>
+          <t>马林宗</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>守护生命安全，传递爱心力量</t>
+          <t>县市场监管局：多措并举开展特种设备超期未检专项整治行动</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>县红十字会</t>
+          <t>县市场监督管理局</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>赵晓通</t>
+          <t>向华勇</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>水质检测有力度 饮水安全有保障</t>
+          <t>望京镇：绷紧地灾防治弦 守护群众安全线</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>王兰</t>
+          <t>马元超</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>岩口镇:集体丰收“黄金甲” 农户增收“笑开花”</t>
+          <t>江口街道：加强雨季养护  确保公路安全</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>郑川</t>
+          <t>周萍萍</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>担主责 除隐患 强备战 保平安</t>
+          <t>平昌县：问诊把脉判风险  凝心聚力保安全</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>李怀明</t>
+          <t>朱开敏</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>平昌县精心构建干部教育培训体系</t>
+          <t>白衣镇：党建引领绘就乡村振兴新画卷</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平昌县地方志办公室</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>冉雪</t>
+          <t>岳永翔</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>响滩镇：吹响晚秋“号角”，擂起粮食“战鼓”</t>
+          <t>平昌县国防教育进校园 同心共筑强国梦</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>平昌县响滩镇人民政府</t>
+          <t>县退役军人事务局</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>周大军</t>
+          <t>董琪</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>岩口镇：举办集体升学礼，唤得文明新风来</t>
+          <t>大寨镇：凝心聚力谋发展，“四大行动”谱新篇</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>王青松</t>
-        </is>
-      </c>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>兰草镇：织密暑期安全网，拧紧高温“安全阀</t>
+          <t>澌岸镇：发展牛产业 过上牛日子</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>王杉文</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>镇龙镇：打好组合拳 铸牢森林防火屏障</t>
+          <t>县交通运输局：“三会”协同夯实行业安全生产基础</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>苟宴平</t>
+          <t>何家溢</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>澌岸镇：做好“三个一”工作，扎实推进“四防”教育</t>
+          <t>东风浩荡，弄潮儿向涛头立</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>新华社</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>澌岸镇  方鑫</t>
+          <t>朱基钗 张研</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>县财政局：“三个坚持”培养高素质干部队伍</t>
+          <t>自2025年全国两会后至7月在全党开展深入贯彻中央八项规定精神学习教育</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>办公室</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>县人社局推进“四治融合” 全力构建和谐劳动关系</t>
+          <t>我县探索产业融合发展，提升大豆玉米带状复合种植效益</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>何文波</t>
+          <t>徐勇 陈汉林</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>县自规局：算好国有资源“明白账”点燃经济发展“新引擎”</t>
+          <t>县发改局：争取到位项目资金1.924亿元</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>马林宗</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>土垭镇：做实防溺水工作保障辖区安全稳定</t>
+          <t>岩口镇：绷紧地灾“责任弦” 筑牢防治“生命线”</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平昌县土垭镇人民政府</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>李宏标、陆鹏飞</t>
+          <t>吴天平</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>灵山镇：筑牢源头防线监管  守护群众舌尖安全</t>
+          <t>逐梦春天里 同心向未来</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>邓仕林</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>县水利局：防暑度汛应对有力 工程建设稳步推进</t>
+          <t>1-2月我县经济运行向上向好</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>李宗峻</t>
+          <t>付佳</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>县交运局：多措并举筑牢交通行业安全屏障</t>
+          <t>澌岸镇：农事开篇，奏响田园新篇章</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>何家溢</t>
+          <t>王秋悦</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>县民政局“三个全面”做实防汛救灾工作</t>
+          <t>笔山镇：深化融圈建链，赋能鞋服赛道</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>笔山镇人民政府</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>符春雷</t>
+          <t>文雯</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>西兴镇：专注食品安全 筑牢安全防线</t>
+          <t>驷马镇：鞋服产业蓬勃发展 乡镇经济再谱新章</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
+          <t>驷马镇人民政府</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>荣芸</t>
+          <t>曾晗</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>为世界文明百花园增添绚丽色彩</t>
+          <t>我县1课例获评“部级精品课”</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>王玉蓉</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>“酒”闻平昌，助推县域经济高质量发展</t>
+          <t>邱家镇：全力打好春耕生产“主动仗”</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>县地方志办公室</t>
+          <t>邱家镇人民政府</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>陈芳</t>
+          <t>邵崟雄</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>灵山镇：三聚焦推动法治化营商环境建设</t>
+          <t>我县强化科技示范，推进技术到田</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>陈晓睿</t>
+          <t>陈汉林 王昭擎 毕帅</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>以督促改 以督提效</t>
+          <t>大寨镇：多措并举奏响春耕生产“进行曲”</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>李佳佳</t>
-        </is>
-      </c>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>板庙镇：开展道路交通“两车”专项整治工作</t>
+          <t>澌岸镇：多举措筑牢“九小场所”安全网</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>熊林</t>
+          <t>邓紫薇</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>泥龙镇：聚焦谱好“三部曲”，把“驻村”变为“助村”</t>
+          <t>张勋带队赴贵州、湖南开展投资促进活动</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>王通文</t>
-        </is>
-      </c>
+          <t>招商局</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>江家口水库：重大水利工程建设“火力全开”</t>
+          <t>‌政企社协同发力 共筑养老幸福圈</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>县地方志办公室</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>冉雪</t>
+          <t>沈媛媛</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>平昌县组织开展“一木环保”暑期公益研学实践教育活动</t>
+          <t>县林业局：植此青绿筑金山 油茶报春启新程</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>教科局</t>
+          <t>平昌县林业局</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>王玉蓉</t>
+          <t>曾乐琼</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>平昌县赴眉山、乐山等地开展投资促进活动</t>
+          <t>平昌“高值图谱”科技赋能 精准锁定涉气污染源</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胡智臻、彭紫娴</t>
+          <t>李雪梅</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>佛楼镇：玉米秸秆青贮忙，种养结合同受益</t>
+          <t>西兴镇：地道中药材种出乡村振兴“千金方”</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>莫勤</t>
+          <t>王俊杰</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>规范图书管理 服务乡村振兴</t>
+          <t>镇广高速云台通江河特大桥主拱顺利合龙</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>县图书馆</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>唐依曼</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>平昌县召开2024年道路交通安全工作会议暨“两车”治理工作现场推进会</t>
+          <t>勇挑大梁 在高质量发展中展现新作为</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>县公安局</t>
+          <t>新华社</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1717,101 +1704,97 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024年上半年平昌县经济运行情况</t>
+          <t>金宝街道：人勤春来早 春耕正当时</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>县统计局</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>鲜荣天</t>
+          <t>陈倩</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>“清华学子平昌行”青年交流座谈会成功举行</t>
+          <t>严把养殖场有限空间“安全关”，筑牢安全生产防线</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>岳丹</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>我县“三个三”提速两类土地处置</t>
+          <t>北京同仁堂健康有机产业（海南）有限公司来平考察调研中药材产业</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>沈国强</t>
-        </is>
-      </c>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>县司法局：巧用“加减乘除”法推动整治形式主义为基层减负工作走深走实</t>
+          <t>平昌经开区：以实干姿态抓好各项重点工作</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>县司法局</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>邢文军</t>
-        </is>
-      </c>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>“八一”慰问送温暖  拥军优属掀热潮</t>
+          <t>泥龙镇：全力做好春耕生产工作</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>县退役军人事务局</t>
+          <t>泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1819,419 +1802,427 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>平昌白酒营销推介（温州站）活动成效显著</t>
+          <t>镇龙镇：“五强化”全力打好春耕生产“主动仗”</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>县商务局</t>
+          <t>镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>唐立</t>
+          <t>何苗</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>平昌县“三举措”抓实防汛减灾</t>
+          <t>向着中国式现代化奋力进发</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>孙军</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>我县建立“三项机制”，抓好暑期防溺水工作</t>
+          <t>县统计局精准施策助力首季经济“开门红”</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>县统计局</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>孙军</t>
+          <t>刘华平</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>平昌县5件作品参加中小学生艺术展演活动四川现场展演</t>
+          <t>县财政局：多措并举，扎实做好开工复产保障工作</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>教科局</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>县财政局</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>段福芳</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>板庙镇：强化消防意识 筑牢安全防线</t>
+          <t>县司法局：多措并举助推法治化营商环境</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>熊林</t>
+          <t>何俊</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>我县降低用气成本  助力企业保质增效</t>
+          <t>涵水镇：做实“三个强化”狠抓春耕备耕 确保稳产丰产</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
+          <t>涵水镇人民政府</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>李林娟</t>
+          <t>冯明伟</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>“才聚平昌·智汇经开”2024平昌经开区青年交流活动举行</t>
+          <t>县交通运输局：扎实推进超限超载集中治理工作</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>唐耀宗</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>平昌县“四个机制”推进安全宣传“五进”</t>
+          <t>白衣镇：下好春耕备耕“先手棋” 打响粮食丰收“主动仗”</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>丁张</t>
+          <t>朱婕</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>粉壁镇：筑牢防溺水安全防线，守护未成年儿童生命健康</t>
+          <t>江口街道：多措并举抓补栏，“畜”势勃发稳增长</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>苟槐</t>
+          <t>岳丹</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>平昌县“三个一”强化有限空间安全监管</t>
+          <t>江口水乡管理局：以练筑防，打响应急处置“主动仗”</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>江口水乡水利风景区建设管理局</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>唐艺精</t>
+          <t>刘芹</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>平昌经开区青年干部第一期技能大赛举行</t>
+          <t>县供销社：紧握“三社”融合笔，绘就茶园管护图</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>县供销合作社联合社</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>胥青松</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>我县“三聚力”抓好消防安全</t>
+          <t>三十二梁镇：打好“主动仗”，拼出“开门红”</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>唐艺精</t>
-        </is>
-      </c>
+          <t>三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>平昌县：九小场所“回头看” 消防安全“除隐患”</t>
+          <t>笔山镇：高效油茶栽植，助力经济发展</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>笔山镇人民政府</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>杨海燕</t>
+          <t>杜明哲</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>平昌县2024年第3期“政企沟通茶间荟举行</t>
+          <t>江家口镇：守土有责 打好地灾防御战</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>县工商联</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>高灵</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>上半年，我县经济运行总体向好</t>
+          <t>岩口镇：不误农时抓生产  “耕”续奋进新篇章</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>付佳</t>
+          <t>吴天平</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>泥龙镇：“三到位”筑牢防溺水安全堤</t>
+          <t>县农业农村局：优化“三大环境” 助推农业高质量发展</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>刘泽</t>
+          <t>张小平 徐勇</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>县教育科技局开展2024年“政务开放日”主题活动</t>
+          <t>粉壁镇：春耕备耕忙 奏响农业生产“奋进曲”</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>李世林</t>
+          <t>苟术进</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>促进种养“双向奔赴” 带动农民持续增收</t>
+          <t>灵山镇：打好春耕生产“主动仗” 拼出农业生产“开门红”</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>徐勇</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>南天门管委会：创新机制，打破瓶颈，持续壮大村集体经济发展</t>
+          <t>江口街道：多措并举保障消防安全</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>南天门旅游景区管理委员会</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>马秀莲</t>
+          <t>杨垒</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>县教科局党组专题学习党的二十届三中全会精神</t>
+          <t>平昌县红色文旅产业链又一项目签约</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>县文化广播电视体育和旅游局</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -2239,202 +2230,206 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>平昌县全面推行“两单一图”机制让风险隐患做到心中有数</t>
+          <t>县民政局：丰富三类形态，实现“老有所养”</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>孙玉华</t>
+          <t>符春雷</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>板庙镇：三步走织密夏季防溺水安全网</t>
+          <t>金宝新区：春耕备耕正当时 农业生产启新程</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>何贤</t>
-        </is>
-      </c>
+          <t>金宝新区管委会</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>酷暑难挡普查路，踏寻遗珍不停步</t>
+          <t>平昌县大力推进海福特牛生物育种工程</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>县文保中心</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>李任凇、徐 勇</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>监管与服务并重，检查与指导同行</t>
+          <t>救急难，让温暖触手可及</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>靳绍军、杨旺、张心莲、苟书洲</t>
+          <t>王露</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>9.8秒，完成294人的应急逃生撤离！</t>
+          <t>佛头山管委会：开展景区地质灾害自查工作</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>佛头山管理委员会</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>靳绍军、杨旺、张心莲、苟书洲</t>
+          <t>何秀芳</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>江家口镇：“三张网”筑牢防溺水安全防线</t>
+          <t>江口街道：“三个一”保障有限空间作业安全</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>邱明英</t>
+          <t>杨垒</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>望京镇：多措并举防溺水  筑牢生命保护墙</t>
+          <t>我县实施“三大攻坚”推进水产业招商引资</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>望京镇人民政府</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>张蓝心</t>
+          <t>何光斌、徐 勇</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>平昌县召开重大传染病防治和严重精神障碍患者管理服务工作推进会</t>
+          <t>平昌县“三举措”扎实推进春耕备耕</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>王义斌 徐勇</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>县自规局：多措并举出实招  招商引资见成效</t>
+          <t>岩口镇：绿产喜丰收  “蔬”写致富路</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>吴天平</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>秦巴茗兰“静心玉叶（有机）”和“茗兰雀舌”荣获金奖</t>
+          <t>县供销社：三位一体强保供，多策赋能护春耕</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2444,152 +2439,156 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>曾俊文</t>
+          <t>吴昊</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>望京镇：加强汛期自建房隐患排查 守护群众生命安全</t>
+          <t>回龙服装制造有限公司：节后复产复工 跑出首季“加速度”</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>望京镇人民政府</t>
+          <t>邱家镇人民政府</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>蔡凤琼</t>
+          <t>詹渝龍</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>响滩镇：规范乡厨“农村宴”，守好舌尖“安全门”</t>
+          <t>江口街道：护航开学季 筑牢安全线</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>响滩镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>任成均</t>
+          <t>何姣</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>县不动产登记中心：三大举措优环境  助力营商新篇章</t>
+          <t>县公路养护管理段：安全生产“百日攻坚”，养路人一直在路上</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>王舟</t>
+          <t>李成志</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>我县积极推进消费品以旧换新</t>
+          <t>县民政局：全面排查养老机构地质灾害隐患</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>县商务局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>唐立</t>
+          <t>符春雷</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>平昌县多措并举开展森林火灾隐患排查整治工作</t>
+          <t>兰草镇：有序开展地质隐患排查工作，消除身边安全隐患</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>兰草镇人民政府</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>杨海燕</t>
+          <t>游淦欽</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>我县“四措并举”扎实做好防汛减灾工作</t>
+          <t>江家口镇：多措并举，抓实道路交通安全工作</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>高灵</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>平昌经开区：全力为企业发展护航</t>
+          <t>聚焦三大领域，自规新年开篇“划重点”</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2597,926 +2596,922 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>平昌县聚焦“三个聚焦”推进安全宣传“五进”工作</t>
+          <t>兰草镇：念好“四字诀” 织密春耕防火安全网</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>赵彩霞</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>岩口镇以“三查”筑牢汛期安全防线</t>
+          <t>驷马镇：扎实抓好“村村响”维护，保障信息传递“生命线”</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>驷马镇人民政府</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>王青松</t>
+          <t>曾晗</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>泥龙镇:唱好“三字经”，推进乡村振兴</t>
+          <t>喜报！2024年度全国基层糖尿病规范化管理中心名单公布，平昌1家单位上榜！</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>杨博文</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>四川平昌大美鑫光锂电池项目预计7月底正式投产</t>
+          <t>县文广体旅局：“非”同寻常，“遗”起过年，打造传统年味文旅盛宴</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>县文广体旅局</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>孙佳</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>金宝街道：真抓实干度汛期，社会救助暖人心</t>
+          <t>西兴镇：防治大气污染  绘就美丽蓝天</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>荣芸</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>灵山镇：盛夏水果丰收忙，产业助力增收旺</t>
+          <t>江口街道：“地毯式”排查地灾隐患  筑牢生命安全防线</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>孙庶翔</t>
+          <t>李乙宁</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>经开区：扎实开展食品安全排查整治专项行动</t>
+          <t>“举杯平昌▪奔跑春天”平昌县2025年健身欢乐跑顺利举行</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>县文化广播电视体育和旅游局</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>孙佳</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>江口街道：夯实举措，全力防治地质灾害</t>
+          <t>温暖务工启程路，返岗专车再出发</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>何姣</t>
-        </is>
-      </c>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>扎实推进“田长制”，守好粮食“生命线”</t>
+          <t>灵山镇“三强化”，筑牢地质灾害防治“安全线”</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>胡文彩</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>县发改局：抓好“四心”服务 打造良好审批软环境</t>
+          <t>邱家镇：燃气设施常“体检”，安全意识不“冬眠”</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
+          <t>邱家镇人民政府</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>付玉霞</t>
+          <t>邵崟雄</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>响滩镇：“三举措”筑牢防溺水“生命之堤”</t>
+          <t>江口街道：铆足干劲火力全开 奋力实现“开局精彩”</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>响滩镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>周大军</t>
+          <t>何姣</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>大寨镇：扎实开展畜禽养殖污染防治工作</t>
+          <t>粉壁镇：“三早”推进春耕生产</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>大寨镇人民政府</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>纪菲</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>我县“三个强化”扎实抓好道路交通安全工作</t>
+          <t>镇龙镇：精准核实务工信息 助力稳岗就业</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>白佳林</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>创造发展机遇 促进共同繁荣</t>
+          <t>平昌县2025年“春风行动”暨东西部劳务协作招聘会成功举办</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>新华社</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>平昌县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>饶鑫</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>县水利局：抓安全，抢进度，全力以赴推进国债水利项目建设</t>
+          <t>县公安局“三项举措”全力做好全县春节期间烟花爆竹禁燃禁放管控工作</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县公安局</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>何江平</t>
+          <t>平昌县公安局</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>我县三举措强化执法监督 助推企业高质量发展</t>
+          <t>金宝新区:百日攻坚行动，守护道路安全</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>县司法局</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>喻东山</t>
-        </is>
-      </c>
+          <t>金宝新区管委会</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>我县第一批次国债地灾避险搬迁安置户通过验收</t>
+          <t>澌岸镇“三力齐发”奏响招商引资“奋进曲”</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>唐通鑫</t>
+          <t>刘飞</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>江口街道：用好“有事来协商” 巧解居民“心头结”</t>
+          <t>西兴镇：“三举措”保障农村自建房安全</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2025-02-08</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>何姣</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>县自规局：雨情就是命令 全力打好地灾防治攻坚战</t>
+          <t>县交通运输局：铆足干劲抢开局，交通项目复工忙</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>唐通鑫</t>
+          <t>唐依曼</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>县民政局：“汛”速出击，打好防汛“主动仗”</t>
+          <t>县行政审批和数据局：政务服务“管家团” 帮助企业解愁难</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>县行政审批和数据局</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>曹丽</t>
+          <t>李吉林</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>白衣镇：“汛”速出击，全域作战</t>
+          <t>喜报！我县2家基层医疗卫生机构上榜2024年四川省“优质服务基层行”推荐标准名单</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>魏龙泉</t>
-        </is>
-      </c>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>邱家镇以“迅”应“汛”筑牢汛期安全屏障</t>
+          <t>我县多措并举，夯实房地产市场 “硬支撑”</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
+          <t>县财政局</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>孙胜武、李供</t>
+          <t>段福芳</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>镇龙镇：以“汛”为号 以“迅”应“汛”</t>
+          <t>县财政局：多措并举，夯实房地产市场 “硬支撑”</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>县财政局</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>杜忠长</t>
+          <t>段福芳</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>佛楼镇：多措并举守护粮食安全</t>
+          <t>中共中央国务院举行春节团拜会 习近平发表讲话</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>昝秋杉</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>平昌县暑期“爱心课堂”开班</t>
+          <t>县粮储中心：多维发力确保春节粮油供应稳定</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>县民政局</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>王琳</t>
-        </is>
-      </c>
+          <t>县粮储中心</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>县市场监督管理局：开展知识产权“进企业”活动</t>
+          <t>灵山镇坚持“三个零”筑牢道路交通安全屏障</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>李霞</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>县交运局：“汛”速出击，筑牢交通运输安全防线</t>
+          <t>西兴镇：多措并举做好森林防灭火</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>局办公室、局安运股</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>元山镇：扛实工作责任 筑牢防汛安全堤</t>
+          <t>平昌县“回家开店·合伙创业”“买赚新春·灵动蛇年” 活动盛大开幕</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>元山镇人民政府</t>
+          <t>县商务局</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>徐敏</t>
+          <t>何南瑾</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>县教科局：“三个强化”抓实校园防汛工作</t>
+          <t>县综合行政执法局： 扮靓市容迎新年</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>县综合行政执法局</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>王玉蓉、王超</t>
+          <t>葛小玲</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>望京镇：闻“汛”而动  以“汛”为令</t>
+          <t>灵山镇筑牢森林安全“防火墙”</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>望京镇人民政府</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>张蓝心</t>
+          <t>邓仕林</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>粉壁镇：扎实做好防汛减灾工作</t>
+          <t>平昌县多点发力纵深推进财源建设</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>苟槐</t>
-        </is>
-      </c>
+          <t>县财政局</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>佛楼镇：周密部署打好防汛战</t>
+          <t>喜报！我县两家医院获评一星级智慧医院</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>向单单</t>
-        </is>
-      </c>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>泥龙镇：“三强化”筑牢防灾减灾安全防线</t>
+          <t>我县多措并举保障群众春运出行无忧</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>刘泽</t>
-        </is>
-      </c>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>聚焦企业诉求  助力企业发展</t>
+          <t>县交通运输局：交通护航展担当，春运畅行暖人心</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>县行政审批和数据局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>李艳丽</t>
+          <t>局办公室、安运股</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>得胜镇：多举措筑牢防汛“安全堤”</t>
+          <t>县民政局：牵头组织“温暖过冬·快乐过年”活动</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2025-01-18</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>得胜镇人民政府</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>岳缘</t>
+          <t>王小杰</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>板庙镇：多措并举打好防汛减灾“组合拳”</t>
+          <t>县民政局扎实开展岁末年初校外托管机构安全专项检查</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>蒋佳芮</t>
+          <t>孙爽</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>灵山镇：闻“汛”而动，筑牢防汛减灾安全防线</t>
+          <t>涵水镇：当好“三员” 平安稳定迎佳节</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>灵山镇人民政府</t>
+          <t>涵水镇人民政府</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>陈韬</t>
+          <t>何青华</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>平昌县教科局召开2024年教育工作半年总结会</t>
+          <t>县公路养护管理段：打响春运“攻坚战”  护航春运“保安全”</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>王玉蓉</t>
+          <t>李成志</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>蓄力赋能   我县启动2024年暑假教师集中培训</t>
+          <t>土兴镇：多措并举“齐”动手，整洁有序迎新春</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>土兴镇人民政府</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>李世林</t>
+          <t>赵贵青</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>我县“三个突出”织密暑期安全网</t>
+          <t>金宝新区：多方联动抓整治 “洁”尽全力迎新年</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>孙云霞</t>
-        </is>
-      </c>
+          <t>金宝新区管委会</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>镇龙镇：做好充分准备，打好防汛减灾攻坚战</t>
+          <t>三十二梁镇：多措并举扎实推进耕地保护</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>魏元斌</t>
+          <t>党政综合办</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>县供销社：“六个加速”构筑驱动发展新动能</t>
+          <t>灵山镇多措并举织密岁末年初“安全网”</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>县供销合作社联合社</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>何秀平</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>平昌经开区企业沙龙（第三期）暨“银企面对面”活动在企业幸福中心举行</t>
+          <t>县市场监管局:严抓春节节前计量监管，确保节日市场公平正义</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>张进</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>县水利局：重抓工程建和管 良性运行保安全</t>
+          <t>县水利局：抓实春节前安全保障工作</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3533,1293 +3528,861 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>平昌县着力打通茶叶加工“第一公里”</t>
+          <t>县公安局隆重举行2025年第5个中国人民警察节升旗仪式</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>胡智臻 徐勇</t>
-        </is>
-      </c>
+          <t>县公安局</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>县商务局组织白酒企业开拓外贸新市场</t>
+          <t>我县2024年累计为困难群众发放救助金超 2.5亿元</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>县商务局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>苟兰亭</t>
+          <t>米佰林</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>涵水镇：暑期防溺水 安全不“放假”</t>
+          <t>考核强技能  比武淬精兵</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>涵水镇人民政府</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>何青华</t>
+          <t>唐耀宗</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>江口街道：严防死守做实防溺水工作</t>
+          <t>我县扎实开展2024年度水利部水土保持卫星遥感监测图斑复核工作</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>何晓红</t>
+          <t>何然</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>江家口镇：排道路隐患，护万家灯火</t>
+          <t>镇龙司法所：“三个一”助推普法教育走深走实</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>李明鉴</t>
+          <t>郭家杉</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>澌岸镇：提质增量，培育壮大市场主体</t>
+          <t>江口街道：爱心企业家捐资助学 温暖贫困学子求学路</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
+          <t>江口街道办事处</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>魏吕鹏</t>
+          <t>何姣</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>得胜镇：三举措筑牢防溺水安全屏障</t>
+          <t>金宝新区：完善民生服务 保护空气质量</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>张钰杉</t>
-        </is>
-      </c>
+          <t>金宝新区管委会</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>江家口镇：移风易俗引领风尚，文明新风泽润城乡</t>
+          <t>县交运局：多措并举推动道路交通安全百日攻坚行动走深走实</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>蒲璇</t>
+          <t>何家溢</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>镇龙镇：“三结合”推动党纪学习教育 走深走实</t>
+          <t>平昌县开展镇域经济统计业务知识培训</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>陈靖文</t>
+          <t>易贵生</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>大寨镇：推行镇域一体化城乡环境治理</t>
+          <t>泥龙镇：三举措做好冬季烤火安全工作</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>大寨镇人民政府</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>党政办</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>澌岸镇梭滩村：家门口的供销社</t>
+          <t>兰草水库工程建设征地移民安置规划大纲获省政府批复</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>王杉文</t>
+          <t>苏川</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>县自规局：开启规划“导航”  激活资源“引擎”</t>
+          <t>平昌县深入开展“寒冬送温暖”专项救助行动</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县民政局</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>李超</t>
+          <t>魏志强</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>《平昌县国土空间总体规划（2021—2035年）》正式获批实施</t>
+          <t>涵水镇：全力以“复” 推进耕地恢复工作</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>涵水镇人民政府</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>何青华</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>县医保局：结对共建学党纪  互帮互助同守纪</t>
+          <t>得胜镇：“四举措”筑牢森林防火墙</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>县医疗保障局</t>
+          <t>得胜镇人民政府</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>办公室</t>
+          <t>张钰杉</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>县综合行政执法局：“环境整治不留死角 齐心打造靓丽城区”</t>
+          <t>板庙司法所：四诊疗法解企忧，纾难解困促发展</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>葛小玲</t>
+          <t>成章锐</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  得胜镇：切实打好道路交通安全主动仗</t>
+          <t>平昌经开区：举行“我的2024”职工沙龙活动</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>汪久淳</t>
-        </is>
-      </c>
+          <t>平昌经开区</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>邱家镇：多措并举扎实推进“安全生产月”活动</t>
+          <t>得胜镇多措并举扎实做好安全生产工作</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
+          <t>得胜镇人民政府</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>任佳利</t>
+          <t>汪久淳</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>加强经济运行调度 助力“双过半”目标实现</t>
+          <t>单位</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>县发展和改革局</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>付佳</t>
+          <t>数量</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>粉壁镇：扎实开展2024年秋季征兵工作</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>唐治</t>
-        </is>
+          <t>县委党史办</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：“三举措”推进营商环境提质增效</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>沈略</t>
-        </is>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>大寨镇：“三强化”筑牢防汛“安全堤”</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>大寨镇人民政府</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>县商务局</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>镇龙镇：多举措并行打造森林安全防线</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2024-06-28</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>镇龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>王力</t>
-        </is>
+          <t>县交通运输综合行政执法大队</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>镇龙镇：“三举措”筑牢防溺水安全防线</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>平昌县镇龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>陈佳</t>
-        </is>
+          <t>望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>县农业农村局强化市场主体培育助力县域经济高质量发展</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>刘庚儒</t>
-        </is>
+          <t>县发展和改革局</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>县水利局：精准核定江家口水库移民人口</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>得胜镇：“三举措”扎实做好道路交通安全工作</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>张钰杉</t>
-        </is>
+          <t>涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>我县开展“6.25”全国土地日宣传活动</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
           <t>县自然资源和规划局</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>袁健</t>
-        </is>
+      <c r="B173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>我县在“中国创翼”创业创新大赛四川赛区巴中市选拔赛中斩获佳绩</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2024-06-25</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>郭娟</t>
-        </is>
+          <t>县司法局</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>我县“三聚力”打造政务服务“清廉”窗口</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>李吉林</t>
-        </is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>我县开展未成年人进娱乐场所专项整治清查行动</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>周娟</t>
-        </is>
+          <t>西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>平昌县第九届全县学生“学宪法 讲宪法”比赛活动县级决赛成功举行</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>县教育科技局</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>韩玖贵</t>
-        </is>
+          <t>岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>板庙镇：提升安全防范意识，织密防溺水保护网</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>板庙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>余星达</t>
-        </is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>土兴镇：务实“三个强化”，让群众出行更安全</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>土兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>刘焱</t>
-        </is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>响滩镇：开展居民楼栋逃生演练，提升居民消防安全意识</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>响滩镇人民政府</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>任成均</t>
-        </is>
+          <t>云台镇人民政府</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>青云镇：“五学并进” 推动党纪学习教育 走深走实</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2024-06-21</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>杨春</t>
-        </is>
+          <t>三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>邱家镇探索“互望”模式共护美丽“天空蓝”</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2024-06-21</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>张姿柔</t>
-        </is>
+          <t>青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>县委组织部召开传达学习县委十四届九次全会精神专题会议</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2024-06-20</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>县委组织部</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>唐雄</t>
-        </is>
+          <t>公共资源交易服务中心</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>我县成功拍卖2宗国有土地实现价款收入8360万元</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2024-06-20</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>郭文静</t>
-        </is>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>粉壁镇：四个“严抓”扎实推进防汛抗旱工作</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2024-06-20</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>岳瑞</t>
-        </is>
+          <t>笔山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>我县聚焦移民后扶导向  激发乡村振兴活力</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>杨冬</t>
-        </is>
+          <t>泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>“三办”促“三化”，助力便民服务提质增效</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>刘立</t>
-        </is>
+          <t>江口街道办事处</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>得胜镇：三举措织牢防溺水“安全网”</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>岳缘</t>
-        </is>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>平昌县“332”机制深入推进农村假冒伪劣食品整治</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>李爽</t>
-        </is>
+          <t>平昌县农业农村局</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>江口街道：积极开展“九小场所”食品安全排查</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2024-06-19</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>江口街道办事处</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>岳丹</t>
-        </is>
+          <t>白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>县综合行政执法局：“门前五包”常态化 精细管理促文明</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2024-06-18</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>雷浩彬</t>
-        </is>
+          <t>县退役军人事务局</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>泥龙镇：“三抓三促”护航道路安全</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2024-06-18</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>泥龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>吴成浩</t>
-        </is>
+          <t>大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>得胜镇：念好“三字诀”，筑牢夏季校园安全防护网</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2024-06-18</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>冉再一</t>
-        </is>
+          <t>澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>我县兑现奖励资金近100万提振企业信心</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>县商务局</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>沈郑</t>
-        </is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>“万步有约”！走起~</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>张书浩</t>
-        </is>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>佛楼镇：“三步走”扎实开展撂荒地整治工作</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>向单单</t>
-        </is>
+          <t>驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>县林业局：科技赋能 开启森林防灭火监测新模式</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2024-06-14</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>县林业局</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>曾乐琼  王和平  苟琳</t>
-        </is>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>灵山镇多措并举扎实推进“河长制”工作</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2024-06-14</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>李涵</t>
-        </is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>县水利局：移民后扶“三到位”，按下项目快捷键</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2024-06-12</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>杨冬</t>
-        </is>
+          <t>招商局</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>平昌县林业局</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>县卫生健康局</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>县人力资源和社会保障局</t>
+          <t>经开区管委会</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>县供销合作社联合社</t>
+          <t>镇龙镇人民政府</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>县文保中心</t>
+          <t>县统计局</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>县教科局</t>
+          <t>县财政局</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>板庙镇人民政府</t>
+          <t>江口水乡水利风景区建设管理局</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>平昌经开区</t>
+          <t>县供销合作社联合社</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>粉壁镇人民政府</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>县文化广播电视体育和旅游局</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>金宝新区管委会</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4829,47 +4392,47 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>佛头山管理委员会</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>县发展和改革局</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>县文广体旅局</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>县教育科技局</t>
+          <t>县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>县红十字会</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4879,7 +4442,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县公安局</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -4889,7 +4452,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>平昌县水利局</t>
+          <t>县行政审批和数据局</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4899,7 +4462,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>平昌县地方志办公室</t>
+          <t>县粮储中心</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4909,7 +4472,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>平昌县响滩镇人民政府</t>
+          <t>县综合行政执法局</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -4919,7 +4482,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
+          <t>土兴镇人民政府</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4929,7 +4492,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县统计局</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4939,410 +4502,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>得胜镇人民政府</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌经开区</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>平昌县土垭镇人民政府</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>县地方志办公室</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>教科局</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>县图书馆</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>县公安局</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>县统计局</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>经开区管委会</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>县退役军人事务局</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>县商务局</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>县工商联</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>南天门旅游景区管理委员会</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>江家口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>望京镇人民政府</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>响滩镇人民政府</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>江口街道办事处</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>大寨镇人民政府</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>元山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>涵水镇人民政府</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>澌岸镇人民政府</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>平昌县镇龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>土兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>县委组织部</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>县林业局</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
         <v>1</v>
       </c>
     </row>
